--- a/data/lab_personnel_timeline.xlsx
+++ b/data/lab_personnel_timeline.xlsx
@@ -1,23 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kscamp3\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\utku\GitHub\Lab_personnel_timeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D77C592C-7F28-4344-AFD4-E8388049414D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916DC80A-6426-42F3-8364-3EE52D3D949D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1200" yWindow="-15750" windowWidth="26460" windowHeight="15060" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$E$87</definedName>
-  </definedNames>
   <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="167">
   <si>
     <t>Given name</t>
   </si>
@@ -56,45 +53,399 @@
     <t>Stop</t>
   </si>
   <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>Yackzan</t>
+  </si>
+  <si>
+    <t>Technician</t>
+  </si>
+  <si>
+    <t>Mindy</t>
+  </si>
+  <si>
+    <t>Thompson</t>
+  </si>
+  <si>
+    <t>Lab manager</t>
+  </si>
+  <si>
+    <t>Austin</t>
+  </si>
+  <si>
+    <t>Minton</t>
+  </si>
+  <si>
+    <t>Rotation mentor</t>
+  </si>
+  <si>
+    <t>Mason</t>
+  </si>
+  <si>
+    <t>Breedlove</t>
+  </si>
+  <si>
+    <t>Undergraduate</t>
+  </si>
+  <si>
+    <t>Jenna</t>
+  </si>
+  <si>
+    <t>Tinnell</t>
+  </si>
+  <si>
+    <t>Medical students</t>
+  </si>
+  <si>
+    <t>Chandler</t>
+  </si>
+  <si>
+    <t>Zhu</t>
+  </si>
+  <si>
+    <t>High school student</t>
+  </si>
+  <si>
+    <t>Ashley</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>Sarah</t>
+  </si>
+  <si>
+    <t>Kosta</t>
+  </si>
+  <si>
+    <t>Postdoctoral scholar</t>
+  </si>
+  <si>
+    <t>Faruk</t>
+  </si>
+  <si>
+    <t>Moonschi</t>
+  </si>
+  <si>
+    <t>Wellete-Hunsucker</t>
+  </si>
+  <si>
+    <t>Meagan</t>
+  </si>
+  <si>
+    <t>Medley</t>
+  </si>
+  <si>
+    <t>Kristen</t>
+  </si>
+  <si>
+    <t>Miller</t>
+  </si>
+  <si>
+    <t>Gregory</t>
+  </si>
+  <si>
+    <t>Milburn</t>
+  </si>
+  <si>
+    <t>Chase</t>
+  </si>
+  <si>
+    <t>Vickery</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Suhail</t>
+  </si>
+  <si>
+    <t>Dada</t>
+  </si>
+  <si>
+    <t>Intern</t>
+  </si>
+  <si>
+    <t>Autumn</t>
+  </si>
+  <si>
+    <t>Conger</t>
+  </si>
+  <si>
+    <t>Joseph</t>
+  </si>
+  <si>
+    <t>Schneider</t>
+  </si>
+  <si>
+    <t>Tori</t>
+  </si>
+  <si>
+    <t>Buckley</t>
+  </si>
+  <si>
+    <t>Joslyn</t>
+  </si>
+  <si>
+    <t>Issac</t>
+  </si>
+  <si>
+    <t>Cheavar</t>
+  </si>
+  <si>
+    <t>Blair</t>
+  </si>
+  <si>
+    <t>PhD student</t>
+  </si>
+  <si>
+    <t>Hoda</t>
+  </si>
+  <si>
+    <t>Saghaeiannejad-Esfahani</t>
+  </si>
+  <si>
+    <t>Ross</t>
+  </si>
+  <si>
+    <t>Owen</t>
+  </si>
+  <si>
+    <t>Faith</t>
+  </si>
+  <si>
+    <t>Evans</t>
+  </si>
+  <si>
+    <t>Akruti</t>
+  </si>
+  <si>
+    <t>Patel</t>
+  </si>
+  <si>
+    <t>Samaher</t>
+  </si>
+  <si>
+    <t>Alsaad</t>
+  </si>
+  <si>
+    <t>Travis</t>
+  </si>
+  <si>
+    <t>Park</t>
+  </si>
+  <si>
+    <t>Charles</t>
+  </si>
+  <si>
+    <t>Chung</t>
+  </si>
+  <si>
+    <t>Alex</t>
+  </si>
+  <si>
+    <t>Williams</t>
+  </si>
+  <si>
+    <t>Nate</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>Lance</t>
+  </si>
+  <si>
+    <t>Riley</t>
+  </si>
+  <si>
+    <t>Tyler</t>
+  </si>
+  <si>
+    <t>Burton</t>
+  </si>
+  <si>
+    <t>Koen</t>
+  </si>
+  <si>
+    <t>van der Poll</t>
+  </si>
+  <si>
+    <t>Byron</t>
+  </si>
+  <si>
+    <t>Hempel</t>
+  </si>
+  <si>
+    <t>Tara</t>
+  </si>
+  <si>
+    <t>Shrout</t>
+  </si>
+  <si>
+    <t>Premi</t>
+  </si>
+  <si>
+    <t>Shekar (now Haynes)</t>
+  </si>
+  <si>
+    <t>Eric</t>
+  </si>
+  <si>
+    <t>Reid</t>
+  </si>
+  <si>
+    <t>Kristofer</t>
+  </si>
+  <si>
+    <t>Nava</t>
+  </si>
+  <si>
+    <t>Kurtis</t>
+  </si>
+  <si>
+    <t>Mann</t>
+  </si>
+  <si>
+    <t>Heidi</t>
+  </si>
+  <si>
+    <t>Gorbrandt</t>
+  </si>
+  <si>
+    <t>Holley</t>
+  </si>
+  <si>
+    <t>Cheaver</t>
+  </si>
+  <si>
+    <t>Stuart</t>
+  </si>
+  <si>
+    <t>Campbell</t>
+  </si>
+  <si>
+    <t>Robert</t>
+  </si>
+  <si>
+    <t>Helsey</t>
+  </si>
+  <si>
+    <t>Ben</t>
+  </si>
+  <si>
+    <t>Lawson</t>
+  </si>
+  <si>
+    <t>Kelsey</t>
+  </si>
+  <si>
+    <t>Snapp</t>
+  </si>
+  <si>
+    <t>Alexandria</t>
+  </si>
+  <si>
+    <t>Jarrells</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Penny</t>
+  </si>
+  <si>
+    <t>Mihail</t>
+  </si>
+  <si>
+    <t>Mitov</t>
+  </si>
+  <si>
+    <t>Mary</t>
+  </si>
+  <si>
+    <t>Combs</t>
+  </si>
+  <si>
+    <t>Calen</t>
+  </si>
+  <si>
+    <t>Ayodele</t>
+  </si>
+  <si>
+    <t>Osasona</t>
+  </si>
+  <si>
+    <t>Jennifer</t>
+  </si>
+  <si>
+    <t>Peterson</t>
+  </si>
+  <si>
+    <t>Annie</t>
+  </si>
+  <si>
+    <t>Holbrook</t>
+  </si>
+  <si>
+    <t>Wenjun</t>
+  </si>
+  <si>
+    <t>Shekar</t>
+  </si>
+  <si>
+    <t>Rahul</t>
+  </si>
+  <si>
+    <t>Sharma</t>
+  </si>
+  <si>
+    <t>Montague</t>
+  </si>
+  <si>
+    <t>Valerie</t>
+  </si>
+  <si>
+    <t>Reeves</t>
+  </si>
+  <si>
+    <t>Fryman</t>
+  </si>
+  <si>
+    <t>Megan</t>
+  </si>
+  <si>
+    <t>Bardgett</t>
+  </si>
+  <si>
+    <t>Lorenzo</t>
+  </si>
+  <si>
+    <t>Frederico</t>
+  </si>
+  <si>
+    <t>Whelan</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>McAnamey</t>
+  </si>
+  <si>
     <t>Ken</t>
   </si>
   <si>
-    <t>Campbell</t>
-  </si>
-  <si>
     <t>PI</t>
   </si>
   <si>
-    <t>Annie</t>
-  </si>
-  <si>
-    <t>Holbrook</t>
-  </si>
-  <si>
-    <t>Technician</t>
-  </si>
-  <si>
-    <t>Ben</t>
-  </si>
-  <si>
-    <t>Lawson</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>Yackzan</t>
-  </si>
-  <si>
     <t>Jania</t>
   </si>
   <si>
     <t>Bell</t>
   </si>
   <si>
-    <t>Megan</t>
-  </si>
-  <si>
     <t>Crabtree</t>
   </si>
   <si>
@@ -107,33 +458,6 @@
     <t>Mumbai</t>
   </si>
   <si>
-    <t>Rahul</t>
-  </si>
-  <si>
-    <t>Sharma</t>
-  </si>
-  <si>
-    <t>High school student</t>
-  </si>
-  <si>
-    <t>Mary</t>
-  </si>
-  <si>
-    <t>Combs</t>
-  </si>
-  <si>
-    <t>Joseph</t>
-  </si>
-  <si>
-    <t>Schneider</t>
-  </si>
-  <si>
-    <t>Chandler</t>
-  </si>
-  <si>
-    <t>Zhu</t>
-  </si>
-  <si>
     <t>Olivia</t>
   </si>
   <si>
@@ -146,144 +470,6 @@
     <t>Sanchez</t>
   </si>
   <si>
-    <t>Fryman</t>
-  </si>
-  <si>
-    <t>Undergraduate</t>
-  </si>
-  <si>
-    <t>Eric</t>
-  </si>
-  <si>
-    <t>Reid</t>
-  </si>
-  <si>
-    <t>Alex</t>
-  </si>
-  <si>
-    <t>Montague</t>
-  </si>
-  <si>
-    <t>Jennifer</t>
-  </si>
-  <si>
-    <t>Peterson</t>
-  </si>
-  <si>
-    <t>Calen</t>
-  </si>
-  <si>
-    <t>Smith</t>
-  </si>
-  <si>
-    <t>Kelsey</t>
-  </si>
-  <si>
-    <t>Snapp</t>
-  </si>
-  <si>
-    <t>Alexandria</t>
-  </si>
-  <si>
-    <t>Jarrells</t>
-  </si>
-  <si>
-    <t>Justin</t>
-  </si>
-  <si>
-    <t>Penny</t>
-  </si>
-  <si>
-    <t>Kristofer</t>
-  </si>
-  <si>
-    <t>Nava</t>
-  </si>
-  <si>
-    <t>Byron</t>
-  </si>
-  <si>
-    <t>Hempel</t>
-  </si>
-  <si>
-    <t>Kurtis</t>
-  </si>
-  <si>
-    <t>Mann</t>
-  </si>
-  <si>
-    <t>Heidi</t>
-  </si>
-  <si>
-    <t>Gorbrandt</t>
-  </si>
-  <si>
-    <t>Travis</t>
-  </si>
-  <si>
-    <t>Park</t>
-  </si>
-  <si>
-    <t>Tori</t>
-  </si>
-  <si>
-    <t>Buckley</t>
-  </si>
-  <si>
-    <t>Joslyn</t>
-  </si>
-  <si>
-    <t>Issac</t>
-  </si>
-  <si>
-    <t>Ross</t>
-  </si>
-  <si>
-    <t>Owen</t>
-  </si>
-  <si>
-    <t>Faith</t>
-  </si>
-  <si>
-    <t>Evans</t>
-  </si>
-  <si>
-    <t>Gregory</t>
-  </si>
-  <si>
-    <t>Milburn</t>
-  </si>
-  <si>
-    <t>Autumn</t>
-  </si>
-  <si>
-    <t>Conger</t>
-  </si>
-  <si>
-    <t>Chase</t>
-  </si>
-  <si>
-    <t>Vickery</t>
-  </si>
-  <si>
-    <t>Sarah</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
-    <t>Ashley</t>
-  </si>
-  <si>
-    <t>White</t>
-  </si>
-  <si>
-    <t>Mason</t>
-  </si>
-  <si>
-    <t>Breedlove</t>
-  </si>
-  <si>
     <t>Hannah</t>
   </si>
   <si>
@@ -320,180 +506,12 @@
     <t>Wilkerson</t>
   </si>
   <si>
-    <t>Koen</t>
-  </si>
-  <si>
-    <t>van der Poll</t>
-  </si>
-  <si>
-    <t>Intern</t>
-  </si>
-  <si>
-    <t>Suhail</t>
-  </si>
-  <si>
-    <t>Dada</t>
-  </si>
-  <si>
-    <t>Akruti</t>
-  </si>
-  <si>
-    <t>Patel</t>
-  </si>
-  <si>
-    <t>Ayodele</t>
-  </si>
-  <si>
-    <t>Osasona</t>
-  </si>
-  <si>
-    <t>Tyler</t>
-  </si>
-  <si>
-    <t>Holley</t>
-  </si>
-  <si>
-    <t>Tara</t>
-  </si>
-  <si>
-    <t>Shrout</t>
-  </si>
-  <si>
-    <t>Williams</t>
-  </si>
-  <si>
-    <t>Nate</t>
-  </si>
-  <si>
-    <t>Samaher</t>
-  </si>
-  <si>
-    <t>Alsaad</t>
-  </si>
-  <si>
-    <t>Jenna</t>
-  </si>
-  <si>
-    <t>Tinnell</t>
-  </si>
-  <si>
-    <t>Premi</t>
-  </si>
-  <si>
-    <t>PhD student</t>
-  </si>
-  <si>
-    <t>Cheavar</t>
-  </si>
-  <si>
-    <t>Blair</t>
-  </si>
-  <si>
-    <t>Austin</t>
-  </si>
-  <si>
-    <t>Wellete-Hunsucker</t>
-  </si>
-  <si>
-    <t>Minton</t>
-  </si>
-  <si>
     <t>Chloe</t>
   </si>
   <si>
     <t>Roth</t>
   </si>
   <si>
-    <t>Amy</t>
-  </si>
-  <si>
-    <t>McAnamey</t>
-  </si>
-  <si>
-    <t>Bardgett</t>
-  </si>
-  <si>
-    <t>Lorenzo</t>
-  </si>
-  <si>
-    <t>Frederico</t>
-  </si>
-  <si>
-    <t>Whelan</t>
-  </si>
-  <si>
-    <t>Valerie</t>
-  </si>
-  <si>
-    <t>Reeves</t>
-  </si>
-  <si>
-    <t>Wenjun</t>
-  </si>
-  <si>
-    <t>Robert</t>
-  </si>
-  <si>
-    <t>Helsey</t>
-  </si>
-  <si>
-    <t>Cheaver</t>
-  </si>
-  <si>
-    <t>Lance</t>
-  </si>
-  <si>
-    <t>Riley</t>
-  </si>
-  <si>
-    <t>Burton</t>
-  </si>
-  <si>
-    <t>Hoda</t>
-  </si>
-  <si>
-    <t>Saghaeiannejad-Esfahani</t>
-  </si>
-  <si>
-    <t>Meagan</t>
-  </si>
-  <si>
-    <t>Medley</t>
-  </si>
-  <si>
-    <t>Kristen</t>
-  </si>
-  <si>
-    <t>Miller</t>
-  </si>
-  <si>
-    <t>Mihail</t>
-  </si>
-  <si>
-    <t>Mitov</t>
-  </si>
-  <si>
-    <t>Postdoctoral scholar</t>
-  </si>
-  <si>
-    <t>Stuart</t>
-  </si>
-  <si>
-    <t>Charles</t>
-  </si>
-  <si>
-    <t>Chung</t>
-  </si>
-  <si>
-    <t>Faruk</t>
-  </si>
-  <si>
-    <t>Moonschi</t>
-  </si>
-  <si>
-    <t>Kosta</t>
-  </si>
-  <si>
     <t>Utku</t>
   </si>
   <si>
@@ -512,28 +530,13 @@
     <t>Daneshgar</t>
   </si>
   <si>
-    <t>Thompson</t>
-  </si>
-  <si>
-    <t>Mindy</t>
-  </si>
-  <si>
-    <t>Lab manager</t>
-  </si>
-  <si>
     <t>Isaacs</t>
   </si>
   <si>
     <t>Research director</t>
   </si>
   <si>
-    <t>Haynes</t>
-  </si>
-  <si>
-    <t>Medical student</t>
-  </si>
-  <si>
-    <t>Rotating student</t>
+    <t>Project Manager</t>
   </si>
 </sst>
 </file>
@@ -543,13 +546,19 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]mmm\-yy;@"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -572,10 +581,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -597,9 +607,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -637,7 +647,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -743,7 +753,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -885,7 +895,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -893,10 +903,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953AC09-9765-4667-A6A5-FD188D0D574B}">
-  <dimension ref="A1:E87"/>
+  <dimension ref="A1:E90"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61:C76"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -935,7 +945,10 @@
         <v>7</v>
       </c>
       <c r="D2" s="1">
-        <v>38169</v>
+        <v>44531</v>
+      </c>
+      <c r="E2" s="1">
+        <v>45444</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -948,11 +961,11 @@
       <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="1">
-        <v>38261</v>
-      </c>
-      <c r="E3" s="1">
-        <v>39783</v>
+      <c r="D3" s="2">
+        <v>44166</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45292</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -963,188 +976,200 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" s="1">
-        <v>39692</v>
-      </c>
-      <c r="E4" s="1">
-        <v>40725</v>
+        <v>13</v>
+      </c>
+      <c r="D4" s="2">
+        <v>45139</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45200</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>44531</v>
-      </c>
-      <c r="E5" s="1">
-        <v>45444</v>
+        <v>16</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44927</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45139</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="1">
-        <v>44927</v>
-      </c>
-      <c r="E6" s="1"/>
+        <v>19</v>
+      </c>
+      <c r="D6" s="2">
+        <v>45078</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45139</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D7" s="1">
-        <v>44562</v>
-      </c>
-      <c r="E7" s="1"/>
+        <v>44044</v>
+      </c>
+      <c r="E7" s="1">
+        <v>44682</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="1">
-        <v>45161</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>43678</v>
+      </c>
+      <c r="E8" s="2">
+        <v>44682</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="1">
-        <v>39295</v>
-      </c>
-      <c r="E9" s="1">
-        <v>39569</v>
+        <v>27</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44044</v>
+      </c>
+      <c r="E9" s="2">
+        <v>44682</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B10" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" s="1">
-        <v>40391</v>
-      </c>
-      <c r="E10" s="1">
-        <v>40513</v>
+        <v>27</v>
+      </c>
+      <c r="D10" s="2">
+        <v>43313</v>
+      </c>
+      <c r="E10" s="2">
+        <v>44317</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11" s="1">
-        <v>41487</v>
-      </c>
-      <c r="E11" s="1">
-        <v>42125</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44105</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1">
-        <v>44044</v>
-      </c>
-      <c r="E12" s="1">
-        <v>44682</v>
+        <v>13</v>
+      </c>
+      <c r="D12" s="2">
+        <v>43678</v>
+      </c>
+      <c r="E12" s="2">
+        <v>43739</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="1">
-        <v>45139</v>
+        <v>13</v>
+      </c>
+      <c r="D13" s="2">
+        <v>43678</v>
+      </c>
+      <c r="E13" s="2">
+        <v>43739</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D14" s="1">
-        <v>45444</v>
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>43191</v>
+      </c>
+      <c r="E14" s="2">
+        <v>43647</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="1">
-        <v>38930</v>
-      </c>
-      <c r="E15" s="1">
-        <v>39052</v>
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>42948</v>
+      </c>
+      <c r="E15" s="2">
+        <v>43586</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -1155,47 +1180,47 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="1">
-        <v>38930</v>
-      </c>
-      <c r="E16" s="1">
-        <v>39203</v>
+        <v>16</v>
+      </c>
+      <c r="D16" s="2">
+        <v>43313</v>
+      </c>
+      <c r="E16" s="2">
+        <v>43586</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
         <v>39</v>
       </c>
-      <c r="B17" t="s">
-        <v>40</v>
-      </c>
       <c r="C17" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="1">
-        <v>39295</v>
-      </c>
-      <c r="E17" s="1">
-        <v>39569</v>
+        <v>16</v>
+      </c>
+      <c r="D17" s="2">
+        <v>43313</v>
+      </c>
+      <c r="E17" s="2">
+        <v>43586</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>41</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>42</v>
       </c>
-      <c r="C18" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="1">
-        <v>39661</v>
-      </c>
-      <c r="E18" s="1">
-        <v>39934</v>
+      <c r="D18" s="2">
+        <v>43101</v>
+      </c>
+      <c r="E18" s="2">
+        <v>43344</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -1206,13 +1231,13 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>36</v>
-      </c>
-      <c r="D19" s="1">
-        <v>40391</v>
-      </c>
-      <c r="E19" s="1">
-        <v>40513</v>
+        <v>16</v>
+      </c>
+      <c r="D19" s="2">
+        <v>42948</v>
+      </c>
+      <c r="E19" s="2">
+        <v>43221</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -1223,13 +1248,13 @@
         <v>46</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D20" s="1">
-        <v>40391</v>
+        <v>41487</v>
       </c>
       <c r="E20" s="1">
-        <v>40664</v>
+        <v>42856</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -1240,13 +1265,13 @@
         <v>48</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D21" s="2">
-        <v>40560</v>
-      </c>
-      <c r="E21" s="1">
-        <v>40664</v>
+        <v>42217</v>
+      </c>
+      <c r="E21" s="2">
+        <v>42856</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -1257,13 +1282,13 @@
         <v>50</v>
       </c>
       <c r="C22" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D22" s="2">
-        <v>40560</v>
-      </c>
-      <c r="E22" s="1">
-        <v>40664</v>
+        <v>42217</v>
+      </c>
+      <c r="E22" s="2">
+        <v>42856</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -1274,443 +1299,455 @@
         <v>52</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D23" s="2">
-        <v>41122</v>
-      </c>
-      <c r="E23" s="1">
-        <v>41395</v>
+        <v>41487</v>
+      </c>
+      <c r="E23" s="2">
+        <v>42856</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" t="s">
-        <v>36</v>
+        <v>55</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D24" s="2">
-        <v>41122</v>
+        <v>42583</v>
       </c>
       <c r="E24" s="2">
-        <v>41760</v>
+        <v>42644</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D25" s="2">
-        <v>41122</v>
+        <v>42217</v>
       </c>
       <c r="E25" s="2">
-        <v>41395</v>
+        <v>42491</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D26" s="2">
-        <v>41275</v>
+        <v>42217</v>
       </c>
       <c r="E26" s="2">
-        <v>41395</v>
+        <v>42491</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D27" s="2">
-        <v>41852</v>
+        <v>42005</v>
       </c>
       <c r="E27" s="2">
-        <v>42125</v>
+        <v>42248</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D28" s="2">
-        <v>42217</v>
+        <v>42005</v>
       </c>
       <c r="E28" s="2">
-        <v>42856</v>
+        <v>42248</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B29" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D29" s="2">
-        <v>42217</v>
+        <v>41852</v>
       </c>
       <c r="E29" s="2">
-        <v>42856</v>
+        <v>42125</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="D30" s="2">
-        <v>42217</v>
+        <v>41122</v>
       </c>
       <c r="E30" s="2">
-        <v>42491</v>
+        <v>42125</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D31" s="2">
-        <v>42217</v>
+        <v>41640</v>
       </c>
       <c r="E31" s="2">
-        <v>42491</v>
+        <v>41974</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D32" s="2">
-        <v>42948</v>
+        <v>41640</v>
       </c>
       <c r="E32" s="2">
-        <v>43586</v>
+        <v>41974</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D33" s="2">
-        <v>42948</v>
+        <v>41852</v>
       </c>
       <c r="E33" s="2">
-        <v>43221</v>
+        <v>41913</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C34" t="s">
-        <v>36</v>
+        <v>13</v>
       </c>
       <c r="D34" s="2">
-        <v>43313</v>
+        <v>41852</v>
       </c>
       <c r="E34" s="2">
-        <v>43586</v>
+        <v>41913</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D35" s="2">
-        <v>43313</v>
+        <v>41640</v>
       </c>
       <c r="E35" s="2">
-        <v>43586</v>
+        <v>41883</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D36" s="2">
-        <v>43678</v>
+        <v>41122</v>
       </c>
       <c r="E36" s="2">
-        <v>44682</v>
+        <v>41760</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C37" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D37" s="2">
-        <v>44927</v>
+        <v>41487</v>
       </c>
       <c r="E37" s="2">
-        <v>45139</v>
+        <v>41760</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C38" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D38" s="2">
-        <v>45170</v>
-      </c>
-      <c r="E38" s="2"/>
+        <v>40026</v>
+      </c>
+      <c r="E38" s="2">
+        <v>41760</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B39" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C39" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D39" s="2">
-        <v>45292</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>41275</v>
+      </c>
+      <c r="E39" s="2">
+        <v>41609</v>
+      </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C40" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D40" s="2">
-        <v>45170</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>41122</v>
+      </c>
+      <c r="E40" s="1">
+        <v>41395</v>
+      </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B41" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C41" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D41" s="2">
-        <v>45383</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>41122</v>
+      </c>
+      <c r="E41" s="2">
+        <v>41395</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C42" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="D42" s="2">
-        <v>45383</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>41275</v>
+      </c>
+      <c r="E42" s="2">
+        <v>41395</v>
+      </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>74</v>
       </c>
       <c r="B43" t="s">
         <v>92</v>
       </c>
       <c r="C43" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="D43" s="2">
-        <v>45383</v>
-      </c>
-      <c r="E43" s="2"/>
+        <v>41122</v>
+      </c>
+      <c r="E43" s="2">
+        <v>41395</v>
+      </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
       <c r="B44" t="s">
-        <v>94</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D44" s="2">
-        <v>41640</v>
+        <v>41122</v>
       </c>
       <c r="E44" s="2">
-        <v>41883</v>
+        <v>41183</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>95</v>
+        <v>27</v>
       </c>
       <c r="D45" s="2">
-        <v>43101</v>
+        <v>40391</v>
       </c>
       <c r="E45" s="2">
-        <v>43344</v>
+        <v>41030</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="D46" s="2">
-        <v>42005</v>
+        <v>40756</v>
       </c>
       <c r="E46" s="2">
-        <v>42248</v>
+        <v>40817</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" t="s">
-        <v>163</v>
-      </c>
-      <c r="D47" s="2">
-        <v>39965</v>
-      </c>
-      <c r="E47" s="2">
-        <v>40026</v>
+        <v>7</v>
+      </c>
+      <c r="D47" s="1">
+        <v>39692</v>
+      </c>
+      <c r="E47" s="1">
+        <v>40725</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B48" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C48" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="2">
-        <v>41122</v>
-      </c>
-      <c r="E48" s="2">
-        <v>41395</v>
+        <v>16</v>
+      </c>
+      <c r="D48" s="1">
+        <v>40391</v>
+      </c>
+      <c r="E48" s="1">
+        <v>40664</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>37</v>
+        <v>102</v>
       </c>
       <c r="B49" t="s">
-        <v>38</v>
+        <v>103</v>
       </c>
       <c r="C49" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D49" s="2">
-        <v>41275</v>
-      </c>
-      <c r="E49" s="2">
-        <v>41609</v>
+        <v>40560</v>
+      </c>
+      <c r="E49" s="1">
+        <v>40664</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,237 +1758,245 @@
         <v>105</v>
       </c>
       <c r="C50" t="s">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="D50" s="2">
-        <v>41487</v>
-      </c>
-      <c r="E50" s="2">
-        <v>41760</v>
+        <v>40560</v>
+      </c>
+      <c r="E50" s="1">
+        <v>40664</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>39</v>
+        <v>106</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C51" t="s">
-        <v>163</v>
+        <v>27</v>
       </c>
       <c r="D51" s="2">
-        <v>41640</v>
+        <v>39295</v>
       </c>
       <c r="E51" s="2">
-        <v>41974</v>
+        <v>40664</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>44</v>
+        <v>109</v>
       </c>
       <c r="C52" t="s">
-        <v>163</v>
-      </c>
-      <c r="D52" s="2">
-        <v>41640</v>
-      </c>
-      <c r="E52" s="2">
-        <v>41974</v>
+        <v>22</v>
+      </c>
+      <c r="D52" s="1">
+        <v>40391</v>
+      </c>
+      <c r="E52" s="1">
+        <v>40513</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>71</v>
       </c>
       <c r="C53" t="s">
-        <v>163</v>
-      </c>
-      <c r="D53" s="2">
-        <v>42005</v>
-      </c>
-      <c r="E53" s="2">
-        <v>42248</v>
+        <v>16</v>
+      </c>
+      <c r="D53" s="1">
+        <v>40391</v>
+      </c>
+      <c r="E53" s="1">
+        <v>40513</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54" t="s">
-        <v>163</v>
+        <v>19</v>
       </c>
       <c r="D54" s="2">
-        <v>45078</v>
+        <v>39965</v>
       </c>
       <c r="E54" s="2">
-        <v>45139</v>
+        <v>40026</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B55" t="s">
-        <v>162</v>
+        <v>114</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="2">
-        <v>40026</v>
-      </c>
-      <c r="E55" s="2">
-        <v>41760</v>
+        <v>16</v>
+      </c>
+      <c r="D55" s="1">
+        <v>39661</v>
+      </c>
+      <c r="E55" s="1">
+        <v>39934</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
-      </c>
-      <c r="D56" s="2">
-        <v>41487</v>
-      </c>
-      <c r="E56" s="2">
-        <v>42856</v>
+        <v>7</v>
+      </c>
+      <c r="D56" s="1">
+        <v>38261</v>
+      </c>
+      <c r="E56" s="1">
+        <v>39783</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="B57" t="s">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="D57" s="2">
-        <v>44409</v>
-      </c>
-      <c r="E57" s="2"/>
+        <v>39661</v>
+      </c>
+      <c r="E57" s="2">
+        <v>39722</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="B58" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>13</v>
       </c>
       <c r="D58" s="2">
-        <v>44409</v>
-      </c>
-      <c r="E58" s="2"/>
+        <v>39661</v>
+      </c>
+      <c r="E58" s="2">
+        <v>39722</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
-      </c>
-      <c r="D59" s="2">
-        <v>45139</v>
-      </c>
-      <c r="E59" s="2"/>
+        <v>22</v>
+      </c>
+      <c r="D59" s="1">
+        <v>39295</v>
+      </c>
+      <c r="E59" s="1">
+        <v>39569</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>119</v>
+        <v>68</v>
       </c>
       <c r="B60" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
-      </c>
-      <c r="D60" s="2">
-        <v>45505</v>
-      </c>
-      <c r="E60" s="2"/>
+        <v>16</v>
+      </c>
+      <c r="D60" s="1">
+        <v>39295</v>
+      </c>
+      <c r="E60" s="1">
+        <v>39569</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D61" s="2">
-        <v>38200</v>
+        <v>39295</v>
       </c>
       <c r="E61" s="2">
-        <v>38261</v>
+        <v>39356</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="B62" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
-        <v>164</v>
-      </c>
-      <c r="D62" s="2">
+        <v>16</v>
+      </c>
+      <c r="D62" s="1">
         <v>38930</v>
       </c>
-      <c r="E62" s="2">
-        <v>38991</v>
+      <c r="E62" s="1">
+        <v>39203</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
         <v>124</v>
       </c>
-      <c r="B63" t="s">
-        <v>125</v>
-      </c>
       <c r="C63" t="s">
-        <v>164</v>
-      </c>
-      <c r="D63" s="2">
+        <v>16</v>
+      </c>
+      <c r="D63" s="1">
         <v>38930</v>
       </c>
-      <c r="E63" s="2">
-        <v>38991</v>
+      <c r="E63" s="1">
+        <v>39052</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>125</v>
       </c>
       <c r="B64" t="s">
         <v>126</v>
       </c>
-      <c r="C64" t="s">
-        <v>164</v>
+      <c r="C64" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="D64" s="2">
         <v>38930</v>
@@ -1968,392 +2013,412 @@
         <v>128</v>
       </c>
       <c r="C65" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D65" s="2">
-        <v>39295</v>
+        <v>38930</v>
       </c>
       <c r="E65" s="2">
-        <v>39356</v>
+        <v>38991</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
+        <v>45</v>
+      </c>
+      <c r="B66" t="s">
         <v>129</v>
       </c>
-      <c r="B66" t="s">
-        <v>30</v>
-      </c>
       <c r="C66" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D66" s="2">
-        <v>39661</v>
+        <v>38930</v>
       </c>
       <c r="E66" s="2">
-        <v>39722</v>
+        <v>38991</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>131</v>
       </c>
       <c r="C67" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="D67" s="2">
-        <v>39661</v>
+        <v>38200</v>
       </c>
       <c r="E67" s="2">
-        <v>39722</v>
+        <v>38261</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B68" t="s">
-        <v>131</v>
+        <v>95</v>
       </c>
       <c r="C68" t="s">
-        <v>164</v>
-      </c>
-      <c r="D68" s="2">
-        <v>40756</v>
-      </c>
-      <c r="E68" s="2">
-        <v>40817</v>
+        <v>133</v>
+      </c>
+      <c r="D68" s="1">
+        <v>38169</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="B69" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
       <c r="C69" t="s">
-        <v>164</v>
-      </c>
-      <c r="D69" s="2">
-        <v>41122</v>
-      </c>
-      <c r="E69" s="2">
-        <v>41183</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D69" s="1">
+        <v>44927</v>
+      </c>
+      <c r="E69" s="1"/>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C70" t="s">
-        <v>164</v>
-      </c>
-      <c r="D70" s="2">
-        <v>41852</v>
-      </c>
-      <c r="E70" s="2">
-        <v>41913</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D70" s="1">
+        <v>44562</v>
+      </c>
+      <c r="E70" s="1"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="B71" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C71" t="s">
-        <v>164</v>
-      </c>
-      <c r="D71" s="2">
-        <v>41852</v>
-      </c>
-      <c r="E71" s="2">
-        <v>41913</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="D71" s="1">
+        <v>45161</v>
+      </c>
+      <c r="E71" s="1"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="B72" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C72" t="s">
-        <v>164</v>
-      </c>
-      <c r="D72" s="2">
-        <v>42583</v>
-      </c>
-      <c r="E72" s="2">
-        <v>42644</v>
+        <v>22</v>
+      </c>
+      <c r="D72" s="1">
+        <v>45139</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="B73" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C73" t="s">
-        <v>164</v>
-      </c>
-      <c r="D73" s="2">
-        <v>43678</v>
-      </c>
-      <c r="E73" s="2">
-        <v>43739</v>
+        <v>22</v>
+      </c>
+      <c r="D73" s="1">
+        <v>45444</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="B74" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C74" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="D74" s="2">
-        <v>43678</v>
-      </c>
-      <c r="E74" s="2">
-        <v>43739</v>
-      </c>
+        <v>45170</v>
+      </c>
+      <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>116</v>
+        <v>146</v>
       </c>
       <c r="B75" t="s">
-        <v>117</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="D75" s="2">
-        <v>44105</v>
-      </c>
-      <c r="E75" s="2">
-        <v>44166</v>
-      </c>
+        <v>45292</v>
+      </c>
+      <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>116</v>
+        <v>148</v>
       </c>
       <c r="B76" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="C76" t="s">
-        <v>164</v>
+        <v>16</v>
       </c>
       <c r="D76" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="E76" s="2">
-        <v>45200</v>
+        <v>45536</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="B77" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
       <c r="C77" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D77" s="2">
-        <v>39295</v>
-      </c>
-      <c r="E77" s="2">
-        <v>40664</v>
-      </c>
+        <v>45383</v>
+      </c>
+      <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="B78" t="s">
-        <v>6</v>
+        <v>153</v>
       </c>
       <c r="C78" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D78" s="2">
-        <v>40391</v>
-      </c>
-      <c r="E78" s="2">
-        <v>41030</v>
-      </c>
+        <v>45383</v>
+      </c>
+      <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="B79" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="C79" t="s">
-        <v>144</v>
+        <v>16</v>
       </c>
       <c r="D79" s="2">
-        <v>41122</v>
-      </c>
-      <c r="E79" s="2">
-        <v>42125</v>
-      </c>
+        <v>45383</v>
+      </c>
+      <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>35</v>
       </c>
       <c r="B80" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
       <c r="C80" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="D80" s="2">
-        <v>43313</v>
-      </c>
-      <c r="E80" s="2">
-        <v>44317</v>
-      </c>
+        <v>44409</v>
+      </c>
+      <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B81" t="s">
-        <v>150</v>
+        <v>30</v>
       </c>
       <c r="C81" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="D81" s="2">
-        <v>44044</v>
-      </c>
-      <c r="E81" s="2">
-        <v>44682</v>
-      </c>
+        <v>44409</v>
+      </c>
+      <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>151</v>
+        <v>11</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>12</v>
       </c>
       <c r="C82" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="D82" s="2">
-        <v>44774</v>
+        <v>45139</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C83" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="D83" s="2">
-        <v>45139</v>
+        <v>45505</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B84" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C84" t="s">
-        <v>144</v>
+        <v>27</v>
       </c>
       <c r="D84" s="2">
-        <v>45505</v>
-      </c>
-      <c r="E84" s="2"/>
+        <v>44774</v>
+      </c>
+      <c r="E84" s="2">
+        <v>45536</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>158</v>
       </c>
       <c r="B85" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C85" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="D85" s="2">
-        <v>43191</v>
-      </c>
-      <c r="E85" s="2">
-        <v>43647</v>
-      </c>
+        <v>45536</v>
+      </c>
+      <c r="E85" s="2"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="B86" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="D86" s="2">
-        <v>44166</v>
-      </c>
-      <c r="E86" s="2">
-        <v>45292</v>
-      </c>
+        <v>45139</v>
+      </c>
+      <c r="E86" s="2"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="B87" t="s">
-        <v>41</v>
-      </c>
-      <c r="C87" s="3" t="s">
-        <v>161</v>
+        <v>163</v>
+      </c>
+      <c r="C87" t="s">
+        <v>27</v>
       </c>
       <c r="D87" s="2">
+        <v>45505</v>
+      </c>
+      <c r="E87" s="2"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>113</v>
+      </c>
+      <c r="B88" t="s">
+        <v>164</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="D88" s="2">
+        <v>42401</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>113</v>
+      </c>
+      <c r="B89" t="s">
+        <v>164</v>
+      </c>
+      <c r="C89" t="s">
+        <v>165</v>
+      </c>
+      <c r="D89" s="1">
         <v>45292</v>
       </c>
     </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>140</v>
+      </c>
+      <c r="B90" t="s">
+        <v>39</v>
+      </c>
+      <c r="C90" t="s">
+        <v>16</v>
+      </c>
+      <c r="D90" s="1">
+        <v>45566</v>
+      </c>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E88">
+    <sortCondition descending="1" ref="E2:E88"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2606,20 +2671,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD2033D-62C9-49C5-95D2-9D0E2397323D}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
+    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2644,12 +2710,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD2033D-62C9-49C5-95D2-9D0E2397323D}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
-    <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/data/lab_personnel_timeline.xlsx
+++ b/data/lab_personnel_timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\utku\GitHub\Lab_personnel_timeline\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Utku\Lab_personnel_timeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{916DC80A-6426-42F3-8364-3EE52D3D949D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F288587-DD3D-4CD0-A314-C3391D686D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
+    <workbookView xWindow="60" yWindow="2145" windowWidth="28800" windowHeight="15345" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="177">
   <si>
     <t>Given name</t>
   </si>
@@ -537,6 +537,36 @@
   </si>
   <si>
     <t>Project Manager</t>
+  </si>
+  <si>
+    <t>Susma</t>
+  </si>
+  <si>
+    <t>Sah</t>
+  </si>
+  <si>
+    <t>Mia</t>
+  </si>
+  <si>
+    <t>Mullins</t>
+  </si>
+  <si>
+    <t>Ava</t>
+  </si>
+  <si>
+    <t>Underwood</t>
+  </si>
+  <si>
+    <t>Carter</t>
+  </si>
+  <si>
+    <t>Terry</t>
+  </si>
+  <si>
+    <t>Jeremyah</t>
+  </si>
+  <si>
+    <t>Cabrera</t>
   </si>
 </sst>
 </file>
@@ -903,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953AC09-9765-4667-A6A5-FD188D0D574B}">
-  <dimension ref="A1:E90"/>
+  <dimension ref="A1:E95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2400,6 +2430,76 @@
       </c>
       <c r="D90" s="1">
         <v>45566</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>167</v>
+      </c>
+      <c r="B91" t="s">
+        <v>168</v>
+      </c>
+      <c r="C91" t="s">
+        <v>16</v>
+      </c>
+      <c r="D91" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>169</v>
+      </c>
+      <c r="B92" t="s">
+        <v>170</v>
+      </c>
+      <c r="C92" t="s">
+        <v>16</v>
+      </c>
+      <c r="D92" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>171</v>
+      </c>
+      <c r="B93" t="s">
+        <v>172</v>
+      </c>
+      <c r="C93" t="s">
+        <v>22</v>
+      </c>
+      <c r="D93" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>173</v>
+      </c>
+      <c r="B94" t="s">
+        <v>174</v>
+      </c>
+      <c r="C94" t="s">
+        <v>16</v>
+      </c>
+      <c r="D94" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>175</v>
+      </c>
+      <c r="B95" t="s">
+        <v>176</v>
+      </c>
+      <c r="C95" t="s">
+        <v>16</v>
+      </c>
+      <c r="D95" s="1">
+        <v>45597</v>
       </c>
     </row>
   </sheetData>
@@ -2422,6 +2522,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100965EA08FA511AE4C9FFF632E6536ED13" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="dc1787fcac4be083c11e6f0029b23b65">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a" xmlns:ns3="6cbc0c5a-d948-46e5-8624-1bad210f77c7" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="d8c1bc71b3e1a5c5643575cdb9067cc0" ns2:_="" ns3:_="">
     <xsd:import namespace="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
@@ -2670,15 +2779,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD2033D-62C9-49C5-95D2-9D0E2397323D}">
   <ds:schemaRefs>
@@ -2691,6 +2791,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F38EDD27-F005-4848-80E2-A7C2C282F1AE}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2707,12 +2815,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/data/lab_personnel_timeline.xlsx
+++ b/data/lab_personnel_timeline.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Utku\Lab_personnel_timeline\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\utku\GitHub\Lab_personnel_timeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F288587-DD3D-4CD0-A314-C3391D686D04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39074E6B-1049-42E3-9D5A-404950D45BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="2145" windowWidth="28800" windowHeight="15345" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="179">
   <si>
     <t>Given name</t>
   </si>
@@ -567,6 +567,12 @@
   </si>
   <si>
     <t>Cabrera</t>
+  </si>
+  <si>
+    <t>Marziyeh</t>
+  </si>
+  <si>
+    <t>Pakbaz</t>
   </si>
 </sst>
 </file>
@@ -933,10 +939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953AC09-9765-4667-A6A5-FD188D0D574B}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="E75" sqref="E75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2113,7 +2119,9 @@
       <c r="D69" s="1">
         <v>44927</v>
       </c>
-      <c r="E69" s="1"/>
+      <c r="E69" s="1">
+        <v>45658</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
@@ -2201,7 +2209,9 @@
       <c r="D75" s="2">
         <v>45292</v>
       </c>
-      <c r="E75" s="2"/>
+      <c r="E75" s="1">
+        <v>45658</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
@@ -2500,6 +2510,20 @@
       </c>
       <c r="D95" s="1">
         <v>45597</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>177</v>
+      </c>
+      <c r="B96" t="s">
+        <v>178</v>
+      </c>
+      <c r="C96" t="s">
+        <v>27</v>
+      </c>
+      <c r="D96" s="1">
+        <v>45658</v>
       </c>
     </row>
   </sheetData>

--- a/data/lab_personnel_timeline.xlsx
+++ b/data/lab_personnel_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\utku\GitHub\Lab_personnel_timeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39074E6B-1049-42E3-9D5A-404950D45BF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8EA616-8969-44B2-B2A1-C615E8279077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8928" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="181">
   <si>
     <t>Given name</t>
   </si>
@@ -573,6 +573,12 @@
   </si>
   <si>
     <t>Pakbaz</t>
+  </si>
+  <si>
+    <t>Howell</t>
+  </si>
+  <si>
+    <t>Cassie</t>
   </si>
 </sst>
 </file>
@@ -939,21 +945,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953AC09-9765-4667-A6A5-FD188D0D574B}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:E97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E75" sqref="E75"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="B97" sqref="B97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -970,7 +976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -987,7 +993,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1004,7 +1010,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1021,7 +1027,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1038,7 +1044,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1055,7 +1061,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1072,7 +1078,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1089,7 +1095,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1106,7 +1112,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1123,7 +1129,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1140,7 +1146,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1157,7 +1163,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1174,7 +1180,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1191,7 +1197,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1208,7 +1214,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1225,7 +1231,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1242,7 +1248,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1259,7 +1265,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1276,7 +1282,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1293,7 +1299,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1310,7 +1316,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1344,7 +1350,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1361,7 +1367,7 @@
         <v>42644</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1378,7 +1384,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1395,7 +1401,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1412,7 +1418,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1429,7 +1435,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1446,7 +1452,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1463,7 +1469,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -1480,7 +1486,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1497,7 +1503,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1514,7 +1520,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -1531,7 +1537,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1548,7 +1554,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1565,7 +1571,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -1582,7 +1588,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -1599,7 +1605,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -1616,7 +1622,7 @@
         <v>41609</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -1633,7 +1639,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -1650,7 +1656,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -1667,7 +1673,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1684,7 +1690,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1701,7 +1707,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -1718,7 +1724,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -1735,7 +1741,7 @@
         <v>40817</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -1752,7 +1758,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1769,7 +1775,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -1786,7 +1792,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -1803,7 +1809,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -1820,7 +1826,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -1837,7 +1843,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -1854,7 +1860,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -1871,7 +1877,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -1888,7 +1894,7 @@
         <v>39934</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -1905,7 +1911,7 @@
         <v>39783</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -1922,7 +1928,7 @@
         <v>39722</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -1939,7 +1945,7 @@
         <v>39722</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -1956,7 +1962,7 @@
         <v>39569</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -1973,7 +1979,7 @@
         <v>39569</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -1990,7 +1996,7 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -2007,7 +2013,7 @@
         <v>39203</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2024,7 +2030,7 @@
         <v>39052</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -2041,7 +2047,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -2058,7 +2064,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -2075,7 +2081,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -2092,7 +2098,7 @@
         <v>38261</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -2106,7 +2112,7 @@
         <v>38169</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -2123,7 +2129,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -2138,7 +2144,7 @@
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -2153,7 +2159,7 @@
       </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -2167,7 +2173,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -2181,7 +2187,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -2196,7 +2202,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -2213,7 +2219,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -2230,7 +2236,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -2245,7 +2251,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -2260,7 +2266,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -2275,7 +2281,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -2290,7 +2296,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -2305,7 +2311,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2320,7 +2326,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -2335,7 +2341,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>158</v>
       </c>
@@ -2352,7 +2358,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -2367,7 +2373,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>160</v>
       </c>
@@ -2382,7 +2388,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>162</v>
       </c>
@@ -2397,7 +2403,7 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -2414,7 +2420,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -2428,7 +2434,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>140</v>
       </c>
@@ -2442,7 +2448,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -2456,7 +2462,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>169</v>
       </c>
@@ -2470,7 +2476,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>171</v>
       </c>
@@ -2484,7 +2490,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>173</v>
       </c>
@@ -2498,7 +2504,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>175</v>
       </c>
@@ -2512,7 +2518,7 @@
         <v>45597</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -2523,6 +2529,20 @@
         <v>27</v>
       </c>
       <c r="D96" s="1">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>180</v>
+      </c>
+      <c r="B97" t="s">
+        <v>179</v>
+      </c>
+      <c r="C97" t="s">
+        <v>16</v>
+      </c>
+      <c r="D97" s="1">
         <v>45658</v>
       </c>
     </row>
@@ -2535,6 +2555,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
@@ -2543,15 +2572,6 @@
     <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2804,20 +2824,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD2033D-62C9-49C5-95D2-9D0E2397323D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
     <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/lab_personnel_timeline.xlsx
+++ b/data/lab_personnel_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\utku\GitHub\Lab_personnel_timeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C8EA616-8969-44B2-B2A1-C615E8279077}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359C7A93-C43E-4C3D-A400-559BA8FC6C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8928" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
+    <workbookView xWindow="285" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
   <si>
     <t>Given name</t>
   </si>
@@ -579,6 +579,12 @@
   </si>
   <si>
     <t>Cassie</t>
+  </si>
+  <si>
+    <t>Alyssa</t>
+  </si>
+  <si>
+    <t>Gentilo</t>
   </si>
 </sst>
 </file>
@@ -945,21 +951,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953AC09-9765-4667-A6A5-FD188D0D574B}">
-  <dimension ref="A1:E97"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="B97" sqref="B97"/>
+      <selection activeCell="D102" sqref="D102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -976,7 +982,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -993,7 +999,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1010,7 +1016,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1027,7 +1033,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1044,7 +1050,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1061,7 +1067,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1078,7 +1084,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1095,7 +1101,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1112,7 +1118,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1129,7 +1135,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1146,7 +1152,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1163,7 +1169,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1180,7 +1186,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1197,7 +1203,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1214,7 +1220,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1231,7 +1237,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1248,7 +1254,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1265,7 +1271,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1282,7 +1288,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1299,7 +1305,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1316,7 +1322,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1333,7 +1339,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1350,7 +1356,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1367,7 +1373,7 @@
         <v>42644</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1384,7 +1390,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1401,7 +1407,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1418,7 +1424,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1435,7 +1441,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1452,7 +1458,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1469,7 +1475,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -1486,7 +1492,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1503,7 +1509,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1520,7 +1526,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -1537,7 +1543,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1554,7 +1560,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1571,7 +1577,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -1588,7 +1594,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -1605,7 +1611,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -1622,7 +1628,7 @@
         <v>41609</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -1639,7 +1645,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -1656,7 +1662,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -1673,7 +1679,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1690,7 +1696,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1707,7 +1713,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -1724,7 +1730,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -1741,7 +1747,7 @@
         <v>40817</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -1758,7 +1764,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1775,7 +1781,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -1792,7 +1798,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -1809,7 +1815,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -1826,7 +1832,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -1843,7 +1849,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -1860,7 +1866,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -1877,7 +1883,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -1894,7 +1900,7 @@
         <v>39934</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -1911,7 +1917,7 @@
         <v>39783</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -1928,7 +1934,7 @@
         <v>39722</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -1945,7 +1951,7 @@
         <v>39722</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -1962,7 +1968,7 @@
         <v>39569</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -1979,7 +1985,7 @@
         <v>39569</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -1996,7 +2002,7 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -2013,7 +2019,7 @@
         <v>39203</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2030,7 +2036,7 @@
         <v>39052</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -2047,7 +2053,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -2064,7 +2070,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -2081,7 +2087,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -2098,7 +2104,7 @@
         <v>38261</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -2112,7 +2118,7 @@
         <v>38169</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -2129,7 +2135,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -2144,7 +2150,7 @@
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -2159,7 +2165,7 @@
       </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -2173,7 +2179,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -2187,7 +2193,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -2202,7 +2208,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -2219,7 +2225,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -2236,7 +2242,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -2251,7 +2257,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -2266,7 +2272,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -2281,7 +2287,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -2296,7 +2302,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -2311,7 +2317,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2326,7 +2332,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -2341,7 +2347,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>158</v>
       </c>
@@ -2358,7 +2364,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -2373,7 +2379,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>160</v>
       </c>
@@ -2388,7 +2394,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>162</v>
       </c>
@@ -2403,7 +2409,7 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -2420,7 +2426,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -2434,7 +2440,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>140</v>
       </c>
@@ -2448,7 +2454,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -2462,7 +2468,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>169</v>
       </c>
@@ -2476,7 +2482,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>171</v>
       </c>
@@ -2490,7 +2496,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>173</v>
       </c>
@@ -2504,7 +2510,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>175</v>
       </c>
@@ -2518,7 +2524,7 @@
         <v>45597</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -2532,7 +2538,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>180</v>
       </c>
@@ -2544,6 +2550,20 @@
       </c>
       <c r="D97" s="1">
         <v>45658</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>181</v>
+      </c>
+      <c r="B98" t="s">
+        <v>182</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1">
+        <v>45689</v>
       </c>
     </row>
   </sheetData>
@@ -2555,15 +2575,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
@@ -2572,6 +2583,15 @@
     <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2824,20 +2844,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD2033D-62C9-49C5-95D2-9D0E2397323D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
     <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/lab_personnel_timeline.xlsx
+++ b/data/lab_personnel_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\utku\GitHub\Lab_personnel_timeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{359C7A93-C43E-4C3D-A400-559BA8FC6C1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2E94EF-0BFC-4E7B-A355-59F573EB4435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="3150" windowWidth="21600" windowHeight="11295" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
+    <workbookView xWindow="228" yWindow="2520" windowWidth="17280" windowHeight="9036" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="186">
   <si>
     <t>Given name</t>
   </si>
@@ -585,6 +585,15 @@
   </si>
   <si>
     <t>Gentilo</t>
+  </si>
+  <si>
+    <t>Kati</t>
+  </si>
+  <si>
+    <t>Johnson</t>
+  </si>
+  <si>
+    <t>Paraprofessional</t>
   </si>
 </sst>
 </file>
@@ -951,21 +960,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953AC09-9765-4667-A6A5-FD188D0D574B}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D102" sqref="D102"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +991,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -999,7 +1008,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1016,7 +1025,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1033,7 +1042,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1050,7 +1059,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1067,7 +1076,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1084,7 +1093,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1101,7 +1110,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1118,7 +1127,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1152,7 +1161,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1169,7 +1178,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1186,7 +1195,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1203,7 +1212,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1220,7 +1229,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1237,7 +1246,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1254,7 +1263,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1271,7 +1280,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1288,7 +1297,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1305,7 +1314,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1322,7 +1331,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1339,7 +1348,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1356,7 +1365,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1373,7 +1382,7 @@
         <v>42644</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1390,7 +1399,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1407,7 +1416,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1424,7 +1433,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1441,7 +1450,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1458,7 +1467,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1475,7 +1484,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -1492,7 +1501,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1509,7 +1518,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1526,7 +1535,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -1543,7 +1552,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1560,7 +1569,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1577,7 +1586,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -1594,7 +1603,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -1611,7 +1620,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -1628,7 +1637,7 @@
         <v>41609</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -1645,7 +1654,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -1662,7 +1671,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -1679,7 +1688,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1696,7 +1705,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1713,7 +1722,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -1730,7 +1739,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -1747,7 +1756,7 @@
         <v>40817</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -1764,7 +1773,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1781,7 +1790,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -1798,7 +1807,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -1815,7 +1824,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -1832,7 +1841,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -1849,7 +1858,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -1866,7 +1875,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -1883,7 +1892,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -1900,7 +1909,7 @@
         <v>39934</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -1917,7 +1926,7 @@
         <v>39783</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -1934,7 +1943,7 @@
         <v>39722</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -1951,7 +1960,7 @@
         <v>39722</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -1968,7 +1977,7 @@
         <v>39569</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -1985,7 +1994,7 @@
         <v>39569</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -2002,7 +2011,7 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -2019,7 +2028,7 @@
         <v>39203</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2036,7 +2045,7 @@
         <v>39052</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -2053,7 +2062,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -2070,7 +2079,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -2087,7 +2096,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -2104,7 +2113,7 @@
         <v>38261</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -2118,7 +2127,7 @@
         <v>38169</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -2135,7 +2144,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -2150,7 +2159,7 @@
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -2165,7 +2174,7 @@
       </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -2179,7 +2188,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -2193,7 +2202,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -2208,7 +2217,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -2225,7 +2234,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -2242,7 +2251,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -2257,7 +2266,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -2272,7 +2281,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -2287,7 +2296,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -2302,7 +2311,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -2317,7 +2326,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2332,7 +2341,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -2347,7 +2356,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>158</v>
       </c>
@@ -2364,7 +2373,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -2379,7 +2388,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>160</v>
       </c>
@@ -2394,7 +2403,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>162</v>
       </c>
@@ -2409,7 +2418,7 @@
       </c>
       <c r="E87" s="2"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -2426,7 +2435,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -2440,7 +2449,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>140</v>
       </c>
@@ -2454,7 +2463,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -2468,7 +2477,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>169</v>
       </c>
@@ -2482,7 +2491,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>171</v>
       </c>
@@ -2496,7 +2505,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>173</v>
       </c>
@@ -2510,7 +2519,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>175</v>
       </c>
@@ -2523,8 +2532,11 @@
       <c r="D95" s="1">
         <v>45597</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E95" s="1">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -2538,7 +2550,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>180</v>
       </c>
@@ -2552,7 +2564,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>181</v>
       </c>
@@ -2564,6 +2576,20 @@
       </c>
       <c r="D98" s="1">
         <v>45689</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>183</v>
+      </c>
+      <c r="B99" t="s">
+        <v>184</v>
+      </c>
+      <c r="C99" t="s">
+        <v>185</v>
+      </c>
+      <c r="D99" s="1">
+        <v>45658</v>
       </c>
     </row>
   </sheetData>

--- a/data/lab_personnel_timeline.xlsx
+++ b/data/lab_personnel_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\utku\GitHub\Lab_personnel_timeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B2E94EF-0BFC-4E7B-A355-59F573EB4435}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230C37C7-68D6-403C-9F3D-DBA2538646D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="228" yWindow="2520" windowWidth="17280" windowHeight="9036" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -962,8 +962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953AC09-9765-4667-A6A5-FD188D0D574B}">
   <dimension ref="A1:E99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2416,7 +2416,9 @@
       <c r="D87" s="2">
         <v>45505</v>
       </c>
-      <c r="E87" s="2"/>
+      <c r="E87" s="2">
+        <v>45778</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
@@ -2601,6 +2603,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
@@ -2609,15 +2620,6 @@
     <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2870,20 +2872,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD2033D-62C9-49C5-95D2-9D0E2397323D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
     <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/data/lab_personnel_timeline.xlsx
+++ b/data/lab_personnel_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\utku\GitHub\Lab_personnel_timeline\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{230C37C7-68D6-403C-9F3D-DBA2538646D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7ADA95-127D-4063-9EE1-2EEE1AB5F9D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{894F3479-6172-4C97-B34D-DB9478A5D1D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="188">
   <si>
     <t>Given name</t>
   </si>
@@ -594,6 +594,12 @@
   </si>
   <si>
     <t>Paraprofessional</t>
+  </si>
+  <si>
+    <t>Messmer</t>
+  </si>
+  <si>
+    <t>Senior Research Associate</t>
   </si>
 </sst>
 </file>
@@ -960,21 +966,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2953AC09-9765-4667-A6A5-FD188D0D574B}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="K90" sqref="K90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -991,7 +997,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -1008,7 +1014,7 @@
         <v>45444</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1025,7 +1031,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -1042,7 +1048,7 @@
         <v>45200</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -1059,7 +1065,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>20</v>
       </c>
@@ -1093,7 +1099,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>23</v>
       </c>
@@ -1110,7 +1116,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>25</v>
       </c>
@@ -1127,7 +1133,7 @@
         <v>44682</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>28</v>
       </c>
@@ -1144,7 +1150,7 @@
         <v>44317</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1161,7 +1167,7 @@
         <v>44166</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>31</v>
       </c>
@@ -1178,7 +1184,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>33</v>
       </c>
@@ -1195,7 +1201,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1212,7 +1218,7 @@
         <v>43647</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>35</v>
       </c>
@@ -1229,7 +1235,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1246,7 +1252,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>25</v>
       </c>
@@ -1263,7 +1269,7 @@
         <v>43586</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>40</v>
       </c>
@@ -1280,7 +1286,7 @@
         <v>43344</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>43</v>
       </c>
@@ -1297,7 +1303,7 @@
         <v>43221</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>45</v>
       </c>
@@ -1314,7 +1320,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>47</v>
       </c>
@@ -1331,7 +1337,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>49</v>
       </c>
@@ -1348,7 +1354,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -1365,7 +1371,7 @@
         <v>42856</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>54</v>
       </c>
@@ -1382,7 +1388,7 @@
         <v>42644</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>56</v>
       </c>
@@ -1399,7 +1405,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>58</v>
       </c>
@@ -1416,7 +1422,7 @@
         <v>42491</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>60</v>
       </c>
@@ -1433,7 +1439,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>62</v>
       </c>
@@ -1450,7 +1456,7 @@
         <v>42248</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>64</v>
       </c>
@@ -1467,7 +1473,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>66</v>
       </c>
@@ -1484,7 +1490,7 @@
         <v>42125</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>68</v>
       </c>
@@ -1501,7 +1507,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>70</v>
       </c>
@@ -1518,7 +1524,7 @@
         <v>41974</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>72</v>
       </c>
@@ -1535,7 +1541,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>74</v>
       </c>
@@ -1552,7 +1558,7 @@
         <v>41913</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>76</v>
       </c>
@@ -1569,7 +1575,7 @@
         <v>41883</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>78</v>
       </c>
@@ -1586,7 +1592,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>80</v>
       </c>
@@ -1603,7 +1609,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>82</v>
       </c>
@@ -1620,7 +1626,7 @@
         <v>41760</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>84</v>
       </c>
@@ -1637,7 +1643,7 @@
         <v>41609</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -1654,7 +1660,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>88</v>
       </c>
@@ -1671,7 +1677,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>90</v>
       </c>
@@ -1688,7 +1694,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>74</v>
       </c>
@@ -1705,7 +1711,7 @@
         <v>41395</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>93</v>
       </c>
@@ -1722,7 +1728,7 @@
         <v>41183</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -1739,7 +1745,7 @@
         <v>41030</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>96</v>
       </c>
@@ -1756,7 +1762,7 @@
         <v>40817</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>98</v>
       </c>
@@ -1773,7 +1779,7 @@
         <v>40725</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>100</v>
       </c>
@@ -1790,7 +1796,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>102</v>
       </c>
@@ -1807,7 +1813,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>104</v>
       </c>
@@ -1824,7 +1830,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>106</v>
       </c>
@@ -1841,7 +1847,7 @@
         <v>40664</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>108</v>
       </c>
@@ -1858,7 +1864,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>110</v>
       </c>
@@ -1875,7 +1881,7 @@
         <v>40513</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>111</v>
       </c>
@@ -1892,7 +1898,7 @@
         <v>40026</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>113</v>
       </c>
@@ -1909,7 +1915,7 @@
         <v>39934</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>115</v>
       </c>
@@ -1926,7 +1932,7 @@
         <v>39783</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>117</v>
       </c>
@@ -1943,7 +1949,7 @@
         <v>39722</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>82</v>
       </c>
@@ -1960,7 +1966,7 @@
         <v>39722</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>119</v>
       </c>
@@ -1977,7 +1983,7 @@
         <v>39569</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>68</v>
       </c>
@@ -1994,7 +2000,7 @@
         <v>39569</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>122</v>
       </c>
@@ -2011,7 +2017,7 @@
         <v>39356</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -2028,7 +2034,7 @@
         <v>39203</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>5</v>
       </c>
@@ -2045,7 +2051,7 @@
         <v>39052</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>125</v>
       </c>
@@ -2062,7 +2068,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>127</v>
       </c>
@@ -2079,7 +2085,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>45</v>
       </c>
@@ -2096,7 +2102,7 @@
         <v>38991</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>130</v>
       </c>
@@ -2113,7 +2119,7 @@
         <v>38261</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>132</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>38169</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>134</v>
       </c>
@@ -2144,7 +2150,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>125</v>
       </c>
@@ -2159,7 +2165,7 @@
       </c>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>138</v>
       </c>
@@ -2174,7 +2180,7 @@
       </c>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>140</v>
       </c>
@@ -2188,7 +2194,7 @@
         <v>45139</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>142</v>
       </c>
@@ -2201,8 +2207,11 @@
       <c r="D73" s="1">
         <v>45444</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E73" s="1">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>144</v>
       </c>
@@ -2217,7 +2226,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>146</v>
       </c>
@@ -2234,7 +2243,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>148</v>
       </c>
@@ -2251,7 +2260,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>150</v>
       </c>
@@ -2266,7 +2275,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>152</v>
       </c>
@@ -2281,7 +2290,7 @@
       </c>
       <c r="E78" s="2"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>154</v>
       </c>
@@ -2296,7 +2305,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>35</v>
       </c>
@@ -2309,9 +2318,11 @@
       <c r="D80" s="2">
         <v>44409</v>
       </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E80" s="2">
+        <v>45809</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>11</v>
       </c>
@@ -2326,7 +2337,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>11</v>
       </c>
@@ -2341,7 +2352,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>156</v>
       </c>
@@ -2356,7 +2367,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>158</v>
       </c>
@@ -2373,7 +2384,7 @@
         <v>45536</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>158</v>
       </c>
@@ -2388,7 +2399,7 @@
       </c>
       <c r="E85" s="2"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>160</v>
       </c>
@@ -2403,7 +2414,7 @@
       </c>
       <c r="E86" s="2"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>162</v>
       </c>
@@ -2420,7 +2431,7 @@
         <v>45778</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>113</v>
       </c>
@@ -2437,7 +2448,7 @@
         <v>43952</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>113</v>
       </c>
@@ -2451,7 +2462,7 @@
         <v>45292</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>140</v>
       </c>
@@ -2465,7 +2476,7 @@
         <v>45566</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>167</v>
       </c>
@@ -2479,7 +2490,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>169</v>
       </c>
@@ -2493,7 +2504,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>171</v>
       </c>
@@ -2507,7 +2518,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>173</v>
       </c>
@@ -2521,7 +2532,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>175</v>
       </c>
@@ -2538,7 +2549,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>177</v>
       </c>
@@ -2552,7 +2563,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>180</v>
       </c>
@@ -2566,7 +2577,7 @@
         <v>45658</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>181</v>
       </c>
@@ -2580,7 +2591,7 @@
         <v>45689</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>183</v>
       </c>
@@ -2592,6 +2603,23 @@
       </c>
       <c r="D99" s="1">
         <v>45658</v>
+      </c>
+      <c r="E99" s="1">
+        <v>45839</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>186</v>
+      </c>
+      <c r="B100" t="s">
+        <v>25</v>
+      </c>
+      <c r="C100" t="s">
+        <v>187</v>
+      </c>
+      <c r="D100" s="1">
+        <v>45839</v>
       </c>
     </row>
   </sheetData>
@@ -2603,15 +2631,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a">
@@ -2620,6 +2639,15 @@
     <TaxCatchAll xmlns="6cbc0c5a-d948-46e5-8624-1bad210f77c7" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2872,20 +2900,20 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FDD2033D-62C9-49C5-95D2-9D0E2397323D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="5d5a2885-0f9b-4d04-9bc1-f867a2376b8a"/>
     <ds:schemaRef ds:uri="6cbc0c5a-d948-46e5-8624-1bad210f77c7"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{052A151B-9EBC-4A5B-80E8-331BB541A51E}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
